--- a/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
+++ b/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\concepts\seo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0368DC6C-1B61-4C0D-A945-C6E3BD4819ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB77963-6E96-46D2-9A16-640740E1D265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11805" yWindow="1065" windowWidth="22245" windowHeight="19005" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
+    <workbookView xWindow="-25650" yWindow="3540" windowWidth="21600" windowHeight="12735" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>probuilds-de</t>
   </si>
@@ -188,6 +188,48 @@
   </si>
   <si>
     <t>https://probuilds-pt.weebly.com/blog/como-jogar-viktor-probuilds-como-um-lec-pro</t>
+  </si>
+  <si>
+    <t>Builds</t>
+  </si>
+  <si>
+    <t>_yh6SNh=pko*</t>
+  </si>
+  <si>
+    <t>buildslec@gmail.com</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>build-de</t>
+  </si>
+  <si>
+    <t>build-fr</t>
+  </si>
+  <si>
+    <t>build-es</t>
+  </si>
+  <si>
+    <t>build-pt</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>https://build-de.blogspot.com/</t>
+  </si>
+  <si>
+    <t>https://build-fr.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://build-pt.tumblr.com/</t>
+  </si>
+  <si>
+    <t>buildpl</t>
+  </si>
+  <si>
+    <t>http://buildpl.wordpress.com</t>
   </si>
 </sst>
 </file>
@@ -568,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71E433F-997F-4AFD-B346-CC24605D896D}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,6 +771,139 @@
         <v>49</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{30A364DC-D90D-42A2-866A-D8B7693A91B8}"/>
@@ -738,9 +913,18 @@
     <hyperlink ref="D5" r:id="rId5" xr:uid="{C6B2FE02-3E2F-489F-9939-DFE699DB0A17}"/>
     <hyperlink ref="E6" r:id="rId6" xr:uid="{4FA4E68D-AB38-4D92-86FF-C562CC7E9343}"/>
     <hyperlink ref="D6" r:id="rId7" xr:uid="{E2E70BFC-C891-47BA-A840-22F558AB5DE6}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{22CC0C68-D748-4284-9748-5050B2850A91}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{08E01B6D-F80F-41FC-9066-93918E16651A}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{8EA16D9B-4538-402F-9984-FE6C30CBA983}"/>
+    <hyperlink ref="E10" r:id="rId11" xr:uid="{645729A8-614C-4EBF-AE68-8F7CE182862A}"/>
+    <hyperlink ref="E11" r:id="rId12" xr:uid="{7D40EE59-502F-407B-ABF1-63441701C883}"/>
+    <hyperlink ref="D7" r:id="rId13" xr:uid="{000A638D-D302-4AAC-8683-02CA242A91DD}"/>
+    <hyperlink ref="D8" r:id="rId14" xr:uid="{18BDB63E-074F-4D84-A225-E3100308D24D}"/>
+    <hyperlink ref="D10" r:id="rId15" xr:uid="{0CD5F5F1-F84E-4541-B334-7313EF64AD9A}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{DA37229E-85BE-4DEA-8877-72A21A4AF353}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
+++ b/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB77963-6E96-46D2-9A16-640740E1D265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401CA67-262B-4B84-9BD5-5E6569B29E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25650" yWindow="3540" windowWidth="21600" windowHeight="12735" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
+    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>probuilds-de</t>
   </si>
@@ -199,9 +199,6 @@
     <t>buildslec@gmail.com</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>build-de</t>
   </si>
   <si>
@@ -230,6 +227,15 @@
   </si>
   <si>
     <t>http://buildpl.wordpress.com</t>
+  </si>
+  <si>
+    <t>wix</t>
+  </si>
+  <si>
+    <t>https://build-de.blogspot.com/2021/01/azir-build-orianna-build-reflexionen.html</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/article/reflections-on-the-meta-%E2%80%93-into-the-mid-lane-with-humanoid-and-febiven/bltd43ab3abd7ed9d28</t>
   </si>
 </sst>
 </file>
@@ -612,11 +618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71E433F-997F-4AFD-B346-CC24605D896D}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>53</v>
@@ -791,10 +797,10 @@
         <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -808,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>53</v>
@@ -817,10 +823,10 @@
         <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -834,7 +840,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>53</v>
@@ -843,10 +849,10 @@
         <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -860,7 +866,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>53</v>
@@ -869,10 +875,10 @@
         <v>52</v>
       </c>
       <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
         <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -886,7 +892,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>53</v>
@@ -895,10 +901,10 @@
         <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,15 +919,15 @@
     <hyperlink ref="D5" r:id="rId5" xr:uid="{C6B2FE02-3E2F-489F-9939-DFE699DB0A17}"/>
     <hyperlink ref="E6" r:id="rId6" xr:uid="{4FA4E68D-AB38-4D92-86FF-C562CC7E9343}"/>
     <hyperlink ref="D6" r:id="rId7" xr:uid="{E2E70BFC-C891-47BA-A840-22F558AB5DE6}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{22CC0C68-D748-4284-9748-5050B2850A91}"/>
-    <hyperlink ref="E8" r:id="rId9" xr:uid="{08E01B6D-F80F-41FC-9066-93918E16651A}"/>
-    <hyperlink ref="E7" r:id="rId10" xr:uid="{8EA16D9B-4538-402F-9984-FE6C30CBA983}"/>
-    <hyperlink ref="E10" r:id="rId11" xr:uid="{645729A8-614C-4EBF-AE68-8F7CE182862A}"/>
-    <hyperlink ref="E11" r:id="rId12" xr:uid="{7D40EE59-502F-407B-ABF1-63441701C883}"/>
-    <hyperlink ref="D7" r:id="rId13" xr:uid="{000A638D-D302-4AAC-8683-02CA242A91DD}"/>
-    <hyperlink ref="D8" r:id="rId14" xr:uid="{18BDB63E-074F-4D84-A225-E3100308D24D}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{0CD5F5F1-F84E-4541-B334-7313EF64AD9A}"/>
-    <hyperlink ref="D11" r:id="rId16" xr:uid="{DA37229E-85BE-4DEA-8877-72A21A4AF353}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{08E01B6D-F80F-41FC-9066-93918E16651A}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{8EA16D9B-4538-402F-9984-FE6C30CBA983}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{645729A8-614C-4EBF-AE68-8F7CE182862A}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{7D40EE59-502F-407B-ABF1-63441701C883}"/>
+    <hyperlink ref="D7" r:id="rId12" xr:uid="{000A638D-D302-4AAC-8683-02CA242A91DD}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{18BDB63E-074F-4D84-A225-E3100308D24D}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{0CD5F5F1-F84E-4541-B334-7313EF64AD9A}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{DA37229E-85BE-4DEA-8877-72A21A4AF353}"/>
+    <hyperlink ref="E9" r:id="rId16" xr:uid="{BB63547C-729B-4BCE-AD94-E5B8E905BA46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
@@ -930,13 +936,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7112180D-2353-4EA3-A5BA-B8A536E10350}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,6 +1276,24 @@
       </c>
       <c r="G14" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="str">
+        <f>VLOOKUP(A15,Sites!A:C,3,0)</f>
+        <v>de</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="5">
+        <v>44199</v>
       </c>
     </row>
   </sheetData>
@@ -1288,6 +1312,8 @@
     <hyperlink ref="D13" r:id="rId12" xr:uid="{0165751A-416F-4180-8AFA-C05B021D2CF8}"/>
     <hyperlink ref="D14" r:id="rId13" xr:uid="{90FD06E0-6496-4D32-B21F-7CCE8FC26844}"/>
     <hyperlink ref="C8" r:id="rId14" xr:uid="{56FDC5EA-5EC5-46FF-96D9-48B393CCDBDE}"/>
+    <hyperlink ref="C15" r:id="rId15" xr:uid="{0C53E77E-B06D-4443-8FA7-20820DEB25AD}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{98AA11DA-6E4F-465D-AA00-C64220270114}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
+++ b/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401CA67-262B-4B84-9BD5-5E6569B29E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80510C78-29C7-4FB6-B160-3C9B2ABC7AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
+    <workbookView xWindow="-26025" yWindow="5115" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>probuilds-de</t>
   </si>
@@ -236,6 +236,27 @@
   </si>
   <si>
     <t>https://lolesports.com/article/reflections-on-the-meta-%E2%80%93-into-the-mid-lane-with-humanoid-and-febiven/bltd43ab3abd7ed9d28</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/article/%E2%80%9Cit-can-get-really-brutal%E2%80%9D-%E2%80%93-what-do-the-pros-think-of-yuumi/bltbc4c66cd3645937a</t>
+  </si>
+  <si>
+    <t>not posted yet</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/article/meta-reflection-into-the-jungle-with-sk-trick,-mad-shadow,-and-rge-inspired/blt7a7054fa7a9631af</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/article/mad-kaiser-and-rge-vander-break-down-this-season's-support-meta/blte7822744fe3306f2</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/article/%E2%80%9Ci-hope-the-meta-will-change-every-season%E2%80%9D-%E2%80%93-analysing-the-summer-season-mid-lane-with-mad-humanoid/blted96f359ec766296</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/article/%E2%80%9Ci-liked-the-meta-more-than-in-spring%E2%80%9D-%E2%80%93-reflecting-on-summer-season%E2%80%99s-top-lane-with-mad-lions%E2%80%99-orome/blte7d733406124c06c</t>
+  </si>
+  <si>
+    <t>https://build-de.blogspot.com/2021/01/yuumi-build-playstyle-was-halten-die.html</t>
   </si>
 </sst>
 </file>
@@ -936,13 +957,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7112180D-2353-4EA3-A5BA-B8A536E10350}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,6 +1315,75 @@
       </c>
       <c r="E15" s="5">
         <v>44199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="str">
+        <f>VLOOKUP(A16,Sites!A:C,3,0)</f>
+        <v>de</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="5">
+        <v>44203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP(A17,Sites!A:C,3,0)</f>
+        <v>de</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="e">
+        <f>VLOOKUP(A18,Sites!A:C,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="e">
+        <f>VLOOKUP(A19,Sites!A:C,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="e">
+        <f>VLOOKUP(A20,Sites!A:C,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1314,6 +1404,12 @@
     <hyperlink ref="C8" r:id="rId14" xr:uid="{56FDC5EA-5EC5-46FF-96D9-48B393CCDBDE}"/>
     <hyperlink ref="C15" r:id="rId15" xr:uid="{0C53E77E-B06D-4443-8FA7-20820DEB25AD}"/>
     <hyperlink ref="D15" r:id="rId16" xr:uid="{98AA11DA-6E4F-465D-AA00-C64220270114}"/>
+    <hyperlink ref="D16" r:id="rId17" xr:uid="{E87349E2-8E6E-417A-B523-CD12C22DB2DC}"/>
+    <hyperlink ref="D17" r:id="rId18" xr:uid="{8594F124-0981-4418-945E-8D2744CB504B}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{7AA658F0-0D93-4655-AEAD-116B1416CCFD}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{3A5AEBDA-3EB7-4A0E-AD99-F2F6422A8869}"/>
+    <hyperlink ref="D20" r:id="rId21" xr:uid="{333EE67E-1AA6-40AD-9918-14CDB9854AF2}"/>
+    <hyperlink ref="C16" r:id="rId22" xr:uid="{757F35A5-6E82-4268-B933-7D64A3C5362E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
+++ b/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80510C78-29C7-4FB6-B160-3C9B2ABC7AC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C540EF-2627-4ACF-9D92-7682D7827D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26025" yWindow="5115" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>probuilds-de</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>https://build-de.blogspot.com/2021/01/yuumi-build-playstyle-was-halten-die.html</t>
+  </si>
+  <si>
+    <t>https://build-pt.tumblr.com/post/639695590708707328/syndra-build-orianna-build-analisando-a-pista</t>
+  </si>
+  <si>
+    <t>In Queue</t>
   </si>
 </sst>
 </file>
@@ -643,7 +649,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,10 +966,10 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,29 +1343,35 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(A17,Sites!A:C,3,0)</f>
-        <v>de</v>
+        <v>pt</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="e">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="str">
         <f>VLOOKUP(A18,Sites!A:C,3,0)</f>
-        <v>#N/A</v>
+        <v>pt</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="E18" s="5">
+        <v>44204</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1368,7 +1380,7 @@
         <v>#N/A</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>68</v>
@@ -1380,7 +1392,7 @@
         <v>#N/A</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>68</v>
@@ -1405,11 +1417,12 @@
     <hyperlink ref="C15" r:id="rId15" xr:uid="{0C53E77E-B06D-4443-8FA7-20820DEB25AD}"/>
     <hyperlink ref="D15" r:id="rId16" xr:uid="{98AA11DA-6E4F-465D-AA00-C64220270114}"/>
     <hyperlink ref="D16" r:id="rId17" xr:uid="{E87349E2-8E6E-417A-B523-CD12C22DB2DC}"/>
-    <hyperlink ref="D17" r:id="rId18" xr:uid="{8594F124-0981-4418-945E-8D2744CB504B}"/>
-    <hyperlink ref="D18" r:id="rId19" xr:uid="{7AA658F0-0D93-4655-AEAD-116B1416CCFD}"/>
-    <hyperlink ref="D19" r:id="rId20" xr:uid="{3A5AEBDA-3EB7-4A0E-AD99-F2F6422A8869}"/>
-    <hyperlink ref="D20" r:id="rId21" xr:uid="{333EE67E-1AA6-40AD-9918-14CDB9854AF2}"/>
-    <hyperlink ref="C16" r:id="rId22" xr:uid="{757F35A5-6E82-4268-B933-7D64A3C5362E}"/>
+    <hyperlink ref="D17" r:id="rId18" xr:uid="{7AA658F0-0D93-4655-AEAD-116B1416CCFD}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{3A5AEBDA-3EB7-4A0E-AD99-F2F6422A8869}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{333EE67E-1AA6-40AD-9918-14CDB9854AF2}"/>
+    <hyperlink ref="C16" r:id="rId21" xr:uid="{757F35A5-6E82-4268-B933-7D64A3C5362E}"/>
+    <hyperlink ref="C18" r:id="rId22" xr:uid="{4FF5B328-BEAE-40A6-9904-F4E8735D1725}"/>
+    <hyperlink ref="D20" r:id="rId23" xr:uid="{2998D0B8-2670-4BD9-BFE0-099E34AC7EED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
+++ b/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C540EF-2627-4ACF-9D92-7682D7827D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782D3A3D-9E02-4796-BE7F-0C70A7A25B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>probuilds-de</t>
   </si>
@@ -241,9 +241,6 @@
     <t>https://lolesports.com/article/%E2%80%9Cit-can-get-really-brutal%E2%80%9D-%E2%80%93-what-do-the-pros-think-of-yuumi/bltbc4c66cd3645937a</t>
   </si>
   <si>
-    <t>not posted yet</t>
-  </si>
-  <si>
     <t>https://lolesports.com/article/meta-reflection-into-the-jungle-with-sk-trick,-mad-shadow,-and-rge-inspired/blt7a7054fa7a9631af</t>
   </si>
   <si>
@@ -262,7 +259,13 @@
     <t>https://build-pt.tumblr.com/post/639695590708707328/syndra-build-orianna-build-analisando-a-pista</t>
   </si>
   <si>
-    <t>In Queue</t>
+    <t>https://buildpl.wordpress.com/2021/01/08/ornn-build-i-renekton-build-refleksja-na-top-lane/</t>
+  </si>
+  <si>
+    <t>https://build-pt.tumblr.com/post/639740051705708544/nautilus-build-yuumi-build-mad-kaiser-e-rge?is_related_post=1</t>
+  </si>
+  <si>
+    <t>https://buildpl.wordpress.com/2021/01/10/sett-build-refleksja-na-junglerzy/</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +972,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1335,7 @@
         <v>de</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>67</v>
@@ -1349,11 +1352,14 @@
         <f>VLOOKUP(A17,Sites!A:C,3,0)</f>
         <v>pt</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="E17" s="5">
+        <v>44204</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,37 +1371,49 @@
         <v>pt</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="5">
         <v>44204</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="e">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="str">
         <f>VLOOKUP(A19,Sites!A:C,3,0)</f>
-        <v>#N/A</v>
+        <v>pl</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5">
+        <v>44204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP(A20,Sites!A:C,3,0)</f>
+        <v>pl</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="e">
-        <f>VLOOKUP(A20,Sites!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
+      <c r="E20" s="5">
+        <v>44206</v>
       </c>
     </row>
   </sheetData>
@@ -1423,6 +1441,9 @@
     <hyperlink ref="C16" r:id="rId21" xr:uid="{757F35A5-6E82-4268-B933-7D64A3C5362E}"/>
     <hyperlink ref="C18" r:id="rId22" xr:uid="{4FF5B328-BEAE-40A6-9904-F4E8735D1725}"/>
     <hyperlink ref="D20" r:id="rId23" xr:uid="{2998D0B8-2670-4BD9-BFE0-099E34AC7EED}"/>
+    <hyperlink ref="C19" r:id="rId24" xr:uid="{4CDB4226-983B-4423-BD85-2E20EA96305B}"/>
+    <hyperlink ref="C17" r:id="rId25" xr:uid="{59D2F1EA-E286-4428-A8EA-6C4FF9DB5698}"/>
+    <hyperlink ref="C20" r:id="rId26" xr:uid="{7F69816C-C253-4718-BC52-7D0618442902}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
+++ b/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782D3A3D-9E02-4796-BE7F-0C70A7A25B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613BA628-777E-4CDF-85AC-B811A0703CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
+    <workbookView xWindow="2670" yWindow="3480" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>probuilds-de</t>
   </si>
@@ -190,9 +190,6 @@
     <t>https://probuilds-pt.weebly.com/blog/como-jogar-viktor-probuilds-como-um-lec-pro</t>
   </si>
   <si>
-    <t>Builds</t>
-  </si>
-  <si>
     <t>_yh6SNh=pko*</t>
   </si>
   <si>
@@ -266,6 +263,27 @@
   </si>
   <si>
     <t>https://buildpl.wordpress.com/2021/01/10/sett-build-refleksja-na-junglerzy/</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/article/miraculous-resurgence-how-a-new-coach-is-bringing-out-the-best-in-sk-gaming/blt13a270bcef619ef7</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/article/team-vitality%E2%80%99s-milica-%E2%80%9Ci-hope-i-can-live-up-to-expectations%E2%80%9D/bltbea8aa15dd686c9e</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/article/%E2%80%9Cam-i-going-to-get-completely-stomped%E2%80%9D-%E2%80%93-p1noy-on-the-pressure-he-feels-while-filling-in-for-perkz/blt72b9a441abcc7cce</t>
+  </si>
+  <si>
+    <t>https://lolesports.com/article/%E2%80%9Cwhat-happened-online-happened%E2%80%9D-%E2%80%93-rogue-explain-how-they-came-to-relish-playing-from-home/bltd7b73d3b01da45a9</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>https://build-fr.weebly.com/blog/ezreal-build-une-resurgence-miraculeuse-comment-un-nouvel-entraineur-fait-ressortir-le-meilleur</t>
   </si>
 </sst>
 </file>
@@ -652,7 +670,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,25 +830,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,25 +856,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -864,25 +882,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -890,25 +908,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
         <v>57</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,25 +934,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -966,13 +984,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7112180D-2353-4EA3-A5BA-B8A536E10350}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,10 +1335,10 @@
         <v>de</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E15" s="5">
         <v>44199</v>
@@ -1335,10 +1353,10 @@
         <v>de</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5">
         <v>44203</v>
@@ -1353,10 +1371,10 @@
         <v>pt</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="5">
         <v>44204</v>
@@ -1371,10 +1389,10 @@
         <v>pt</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="5">
         <v>44204</v>
@@ -1389,10 +1407,10 @@
         <v>pl</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="5">
         <v>44204</v>
@@ -1407,13 +1425,70 @@
         <v>pl</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="5">
         <v>44206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP(A21,Sites!A:C,3,0)</f>
+        <v>fr</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="5">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP(A22,Sites!A:C,3,0)</f>
+        <v>fr</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="5">
+        <v>44209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="e">
+        <f>VLOOKUP(A23,Sites!A:C,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="e">
+        <f>VLOOKUP(A24,Sites!A:C,3,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1444,6 +1519,11 @@
     <hyperlink ref="C19" r:id="rId24" xr:uid="{4CDB4226-983B-4423-BD85-2E20EA96305B}"/>
     <hyperlink ref="C17" r:id="rId25" xr:uid="{59D2F1EA-E286-4428-A8EA-6C4FF9DB5698}"/>
     <hyperlink ref="C20" r:id="rId26" xr:uid="{7F69816C-C253-4718-BC52-7D0618442902}"/>
+    <hyperlink ref="D21" r:id="rId27" xr:uid="{FBCD8A93-E2DA-401E-8CFA-5B232832BD3F}"/>
+    <hyperlink ref="D22" r:id="rId28" xr:uid="{EBD3659B-0974-44BF-AB05-E658C5BCBC55}"/>
+    <hyperlink ref="D23" r:id="rId29" xr:uid="{B0B74C52-FA45-4688-ABD6-0142C48ECD06}"/>
+    <hyperlink ref="D24" r:id="rId30" xr:uid="{7747ED9D-C7D7-4835-B412-2D3A200FCA7E}"/>
+    <hyperlink ref="C21" r:id="rId31" xr:uid="{ACD98A88-2EE9-42DD-A049-851DFB2B3B2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
+++ b/private/concepts/seo/WEB_2_0_RESSOURCES_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613BA628-777E-4CDF-85AC-B811A0703CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817A0DDA-75EB-4E02-B8AC-12A02AD42E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="3480" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
+    <workbookView xWindow="40860" yWindow="4725" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{EEE84A4D-C1AC-47B8-B08E-7E70A7738F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>probuilds-de</t>
   </si>
@@ -226,9 +226,6 @@
     <t>http://buildpl.wordpress.com</t>
   </si>
   <si>
-    <t>wix</t>
-  </si>
-  <si>
     <t>https://build-de.blogspot.com/2021/01/azir-build-orianna-build-reflexionen.html</t>
   </si>
   <si>
@@ -280,10 +277,13 @@
     <t>https://lolesports.com/article/%E2%80%9Cwhat-happened-online-happened%E2%80%9D-%E2%80%93-rogue-explain-how-they-came-to-relish-playing-from-home/bltd7b73d3b01da45a9</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>https://build-fr.weebly.com/blog/ezreal-build-une-resurgence-miraculeuse-comment-un-nouvel-entraineur-fait-ressortir-le-meilleur</t>
+  </si>
+  <si>
+    <t>https://build-es.wixsite.com/mysite</t>
+  </si>
+  <si>
+    <t>https://build-es.wixsite.com/mysite/post/aphelios-build-y-rell-build-p1noy-en-la-presi%C3%B3n-que-siente-mientras-sustituye-a-perkz</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -882,13 +882,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>63</v>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>52</v>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -976,9 +976,10 @@
     <hyperlink ref="D10" r:id="rId14" xr:uid="{0CD5F5F1-F84E-4541-B334-7313EF64AD9A}"/>
     <hyperlink ref="D11" r:id="rId15" xr:uid="{DA37229E-85BE-4DEA-8877-72A21A4AF353}"/>
     <hyperlink ref="E9" r:id="rId16" xr:uid="{BB63547C-729B-4BCE-AD94-E5B8E905BA46}"/>
+    <hyperlink ref="D9" r:id="rId17" xr:uid="{A3A97AF7-C16F-4187-81A1-3DF7760C35AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -990,7 +991,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,10 +1336,10 @@
         <v>de</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E15" s="5">
         <v>44199</v>
@@ -1353,10 +1354,10 @@
         <v>de</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5">
         <v>44203</v>
@@ -1371,10 +1372,10 @@
         <v>pt</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="5">
         <v>44204</v>
@@ -1389,10 +1390,10 @@
         <v>pt</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="5">
         <v>44204</v>
@@ -1407,10 +1408,10 @@
         <v>pl</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="5">
         <v>44204</v>
@@ -1425,10 +1426,10 @@
         <v>pl</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="5">
         <v>44206</v>
@@ -1443,10 +1444,10 @@
         <v>fr</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="5">
         <v>44205</v>
@@ -1461,34 +1462,43 @@
         <v>fr</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="5">
         <v>44209</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="e">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="str">
         <f>VLOOKUP(A23,Sites!A:C,3,0)</f>
-        <v>#N/A</v>
+        <v>es</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="5">
+        <v>44206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,Sites!A:C,3,0)</f>
+        <v>es</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="e">
-        <f>VLOOKUP(A24,Sites!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>81</v>
+      <c r="E24" s="5">
+        <v>44211</v>
       </c>
     </row>
   </sheetData>
@@ -1524,6 +1534,7 @@
     <hyperlink ref="D23" r:id="rId29" xr:uid="{B0B74C52-FA45-4688-ABD6-0142C48ECD06}"/>
     <hyperlink ref="D24" r:id="rId30" xr:uid="{7747ED9D-C7D7-4835-B412-2D3A200FCA7E}"/>
     <hyperlink ref="C21" r:id="rId31" xr:uid="{ACD98A88-2EE9-42DD-A049-851DFB2B3B2D}"/>
+    <hyperlink ref="C23" r:id="rId32" xr:uid="{CA419F3D-B8C1-421E-883D-EEF219564185}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
